--- a/Fine Form Pre-Cast/35511/zres_siteapp_NEW.xlsx
+++ b/Fine Form Pre-Cast/35511/zres_siteapp_NEW.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fine Form Pre-Cast\35511\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8130F-4179-4F6A-A91A-D6B96E3B59E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="8925" yWindow="2085" windowWidth="28890" windowHeight="18450" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$267</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +44,238 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Installers Checklist</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>45e8814a-82cf-423b-a9fd-c3a56e777229</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>109ae7d1-0278-5525-8bda-80da64a2b4cc</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>Complete Material "Bucket List"</t>
+  </si>
+  <si>
+    <t>f4b76f1e-6cd9-562b-b108-5581201d776a</t>
+  </si>
+  <si>
+    <t>tickbox</t>
+  </si>
+  <si>
+    <t>a252816a-2226-53e7-9141-b23aefffb327</t>
+  </si>
+  <si>
+    <t>b992ca2c-08ae-51b3-9f09-fae3277b82c9</t>
+  </si>
+  <si>
+    <t>Ferrules - M20 (4)</t>
+  </si>
+  <si>
+    <t>7fcfb720-5337-583a-801e-134629bf7070</t>
+  </si>
+  <si>
+    <t>ID Plate (1)</t>
+  </si>
+  <si>
+    <t>9eb8e239-00d9-5022-8c12-c351fa59e086</t>
+  </si>
+  <si>
+    <t>Flick-out Panel Dimensions &amp; DOUBLE CHECK</t>
+  </si>
+  <si>
+    <t>36c69184-1358-566a-b73c-b77f90cd15f1</t>
+  </si>
+  <si>
+    <t>Apply bond breaker or wax 1 2 3</t>
+  </si>
+  <si>
+    <t>f475a17a-3961-536a-93e3-06338bd3a309</t>
+  </si>
+  <si>
+    <t>Temporary Fix ID Plate to Formwork</t>
+  </si>
+  <si>
+    <t>0554993b-415c-5c70-b2c1-d97e4d3267ee</t>
+  </si>
+  <si>
+    <t>Use Aluminimum Formwork on Top Sides &amp; Timber on Bottom Edge</t>
+  </si>
+  <si>
+    <t>bcef6a9d-826a-5a7a-bc2a-47f3ff147616</t>
+  </si>
+  <si>
+    <t>Install Reo as-per Shop Drawing Plan</t>
+  </si>
+  <si>
+    <t>730fdf85-be2f-54f7-8ad5-1791c6f5dbf8</t>
+  </si>
+  <si>
+    <t>Lifters to be Firm &amp; Square against Formwork</t>
+  </si>
+  <si>
+    <t>ec154433-82f4-5131-8bbd-f038da7dd639</t>
+  </si>
+  <si>
+    <t>Check Concrete cover around reo - 30mm</t>
+  </si>
+  <si>
+    <t>eeaa5eba-36d9-52ba-be11-0d77d59ebfdd</t>
+  </si>
+  <si>
+    <t>DOUBLE CHECK EVERYTHING</t>
+  </si>
+  <si>
+    <t>8ba55d3e-27aa-56d9-aef7-a4a04391c867</t>
+  </si>
+  <si>
+    <t>Finish Required - GOOD as near face is outside face of building</t>
+  </si>
+  <si>
+    <t>0d640038-1524-4f32-b06b-a98c855480f7</t>
+  </si>
+  <si>
+    <t>Apply Cure</t>
+  </si>
+  <si>
+    <t>cffb1cd8-bc46-59dd-ad38-bd733e35b4f5</t>
+  </si>
+  <si>
+    <t>QA - Final Check of ALL measurerments &amp; Photos</t>
+  </si>
+  <si>
+    <t>47d8ef19-23fb-53ec-bc0d-d72318ee54a1</t>
+  </si>
+  <si>
+    <t>QA - Concrete Mix N40 Panel Mix</t>
+  </si>
+  <si>
+    <t>5d5e2ce3-2c4b-50e1-b811-24fd824d75f7</t>
+  </si>
+  <si>
+    <t>QA - Check Concrete mix % before accepting. Allow enough mix time.</t>
+  </si>
+  <si>
+    <t>eb8dc484-15a1-5bb0-83fe-9542c3dccbd0</t>
+  </si>
+  <si>
+    <t>CONCRETE TEST TAKEN</t>
+  </si>
+  <si>
+    <t>56aa3f1b-656d-5257-8224-050963a8196a</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Pour Date</t>
+  </si>
+  <si>
+    <t>d557b6a5-e809-541e-b46b-9ca8a21aa575</t>
+  </si>
+  <si>
+    <t>NOT TO BE POURED WITHOUT APPROVAL FROM ENGINEER</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-01 to P-12 &amp; P-101 to P-112)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-13, P-113, P-16, P-116)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-15, P-115, P-18, P-118)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-14, P-114, P-17, P-117)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-19, P-119)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-20, P-120, P-23, P-123, P-26, P-126, P-29, P-129, P-32, P-132)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-21, P-121, P-24, P-124, P-27, P-127, P-30, P-130, P-33, P-133)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-22, P-122, P-25, P-125, P-28, P-128, P-31, P-131)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-34, P-134, P-35, P-135)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-36, P-136, P-37, P-137)</t>
+  </si>
+  <si>
+    <t>Installers Checklist (P-38, P-138, P-39, P-139)</t>
+  </si>
+  <si>
+    <t>M20 x 170mm Double Ferrules (2)</t>
+  </si>
+  <si>
+    <t>M20 x 96mm Single Ferrules (3)</t>
+  </si>
+  <si>
+    <t>5T Edge Lifter (6)</t>
+  </si>
+  <si>
+    <t>M20 x 96mm Brace Ferrules (2)</t>
+  </si>
+  <si>
+    <t>T-41 Face Lifter (2)</t>
+  </si>
+  <si>
+    <t>M20 x 96mm Single Ferrules (10)</t>
+  </si>
+  <si>
+    <t>M20 x 96mm Single Ferrules (11)</t>
+  </si>
+  <si>
+    <t>5T Edge Lifter (2)</t>
+  </si>
+  <si>
+    <t>M20 x 96mm Single Ferrules (6)</t>
+  </si>
+  <si>
+    <t>5T Edge Lifter (4)</t>
+  </si>
+  <si>
+    <t>M20 x 170mm Double Ferrules (7)</t>
+  </si>
+  <si>
+    <t>M20 x 96mm Single Ferrules (4)</t>
+  </si>
+  <si>
+    <t>M20 x 170mm Double Ferrules (8)</t>
+  </si>
+  <si>
+    <t>M20 x 96mm Single Ferrules (2)</t>
+  </si>
+  <si>
+    <t>M20 x 170mm Double Ferrules (10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +410,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +602,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -524,8 +787,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,18 +1174,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +1214,2902 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="9"/>
+      <c r="B130" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
+      <c r="B155" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B171" t="s">
+        <v>52</v>
+      </c>
+      <c r="C171" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="9"/>
+      <c r="B180" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B196" t="s">
+        <v>52</v>
+      </c>
+      <c r="C196" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="s">
+        <v>17</v>
+      </c>
+      <c r="C204" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B219" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B227" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B242" t="s">
+        <v>52</v>
+      </c>
+      <c r="C242" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B266" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G267" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>